--- a/result/gr25_06_simulated/details.xlsx
+++ b/result/gr25_06_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2546827793121338</v>
+        <v>0.2279942035675049</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58.03805103428385</v>
+        <v>56.10687993525971</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002108768425760823</v>
+        <v>0.002183817042338903</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001781289352275832</v>
+        <v>0.001779179316321811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001717610604186861</v>
+        <v>0.001623303116226225</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001550427376803828</v>
+        <v>0.001552078112251966</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001550427376803828</v>
+        <v>0.001475118993924459</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001547675955407399</v>
+        <v>0.001448279285121114</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001532345480759706</v>
+        <v>0.0014041121637863</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00140721922425226</v>
+        <v>0.001326784426068892</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00140721922425226</v>
+        <v>0.001326784426068892</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001401805017016563</v>
+        <v>0.001293642194379384</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001329244347177157</v>
+        <v>0.001243134721200023</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001254750311365736</v>
+        <v>0.001240165102122812</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001254750311365736</v>
+        <v>0.001240165102122812</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001244415590789992</v>
+        <v>0.001204690709905671</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001184505844317031</v>
+        <v>0.001154922463341095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001157478666634143</v>
+        <v>0.001154922463341095</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001157478666634143</v>
+        <v>0.001136975599171764</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001157478666634143</v>
+        <v>0.001105598984748099</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001152434437079466</v>
+        <v>0.00109787980583268</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001131346024060114</v>
+        <v>0.001093701363260423</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2443532943725586</v>
+        <v>0.2160384654998779</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.16664399209913</v>
+        <v>53.96451203334982</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00217976351664225</v>
+        <v>0.002183817042338903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00176744017212423</v>
+        <v>0.001747333769651048</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001547115035387003</v>
+        <v>0.00154987233688212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001478660530587429</v>
+        <v>0.001456229798269619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001478660530587429</v>
+        <v>0.001394005360621007</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001409837442607013</v>
+        <v>0.001368221418100373</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001409837442607013</v>
+        <v>0.001292530709161425</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001371929950194092</v>
+        <v>0.001139396068373133</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001265520131694085</v>
+        <v>0.001139396068373133</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001245868289250204</v>
+        <v>0.001139396068373133</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001236375553915203</v>
+        <v>0.001139396068373133</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001157815580202926</v>
+        <v>0.001139396068373133</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001157815580202926</v>
+        <v>0.001095653656687426</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001111581902986921</v>
+        <v>0.001095653656687426</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001111581902986921</v>
+        <v>0.001095653656687426</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001111581902986921</v>
+        <v>0.001079275579990986</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001098437826329221</v>
+        <v>0.001068592176468574</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001039736713046685</v>
+        <v>0.001058460986854091</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001039736713046685</v>
+        <v>0.001058460986854091</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001036386822458072</v>
+        <v>0.00105193980571832</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2299485206604004</v>
+        <v>0.2080078125</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.26824383048734</v>
+        <v>54.77745932613107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002152731598119159</v>
+        <v>0.002183817042338903</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001716097446028781</v>
+        <v>0.001770272123480519</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001575411980347514</v>
+        <v>0.001537293367222318</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001406175804906957</v>
+        <v>0.001513367714587996</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001364578037516648</v>
+        <v>0.001513367714587996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001364578037516648</v>
+        <v>0.001513367714587996</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001326786190174031</v>
+        <v>0.001424643295353621</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001326786190174031</v>
+        <v>0.001196413938546844</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001326786190174031</v>
+        <v>0.001196413938546844</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001286880023811084</v>
+        <v>0.001159350172556639</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00122206300600507</v>
+        <v>0.001159350172556639</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00122206300600507</v>
+        <v>0.001159350172556639</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00122206300600507</v>
+        <v>0.001159350172556639</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001162971451848912</v>
+        <v>0.001148774925146554</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001148123827862049</v>
+        <v>0.00113328906723255</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001090966007221311</v>
+        <v>0.001125900715091843</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001090966007221311</v>
+        <v>0.001090747149171779</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001077568094759392</v>
+        <v>0.001079538471415672</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001060749792915148</v>
+        <v>0.001079538471415672</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001057860503518271</v>
+        <v>0.001067786731503529</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2455353736877441</v>
+        <v>0.2785139083862305</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>56.29921687129718</v>
+        <v>54.67943350428141</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002062882777126891</v>
+        <v>0.002162077097587758</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00173144796615844</v>
+        <v>0.001737696203857617</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001677301082650232</v>
+        <v>0.001737696203857617</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001668291241374171</v>
+        <v>0.001589896623294049</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001461843004486851</v>
+        <v>0.001565168247107918</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001420783507730189</v>
+        <v>0.001438931452340169</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001374392508897839</v>
+        <v>0.001331488087718228</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001269754312168544</v>
+        <v>0.001331488087718228</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001269754312168544</v>
+        <v>0.00125998331238809</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001247237273477558</v>
+        <v>0.001196629534628492</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001214717980689144</v>
+        <v>0.001168215956809665</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001213896691130222</v>
+        <v>0.001092997837192642</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001213896691130222</v>
+        <v>0.001092997837192642</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001177066574812051</v>
+        <v>0.001092997837192642</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001157696747456663</v>
+        <v>0.001092997837192642</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001127822141486398</v>
+        <v>0.001092997837192642</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001109253313123325</v>
+        <v>0.001092997837192642</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001109253313123325</v>
+        <v>0.001076957324023832</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001106377283519859</v>
+        <v>0.001066431138180037</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001097450621272849</v>
+        <v>0.001065875896769618</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2302501201629639</v>
+        <v>0.2839963436126709</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>60.29912369483463</v>
+        <v>60.26204843626874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00213780095483388</v>
+        <v>0.002183817042338903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001874026443575986</v>
+        <v>0.001736917710231314</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001637070094610974</v>
+        <v>0.001700336605672082</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001422759138090521</v>
+        <v>0.001560510874294788</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001422759138090521</v>
+        <v>0.001480708646370181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001414603261458922</v>
+        <v>0.001480708646370181</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001311690785982416</v>
+        <v>0.001480708646370181</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001311690785982416</v>
+        <v>0.001431665875917394</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001311690785982416</v>
+        <v>0.001400990202078727</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001311690785982416</v>
+        <v>0.001364412942884014</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001275506313571112</v>
+        <v>0.001362624379046705</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001275506313571112</v>
+        <v>0.001293812999451367</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001247049087022757</v>
+        <v>0.001248775592042907</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001247049087022757</v>
+        <v>0.001248775592042907</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001236715575187244</v>
+        <v>0.001220148915292217</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001211769955718682</v>
+        <v>0.001220148915292217</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001211769955718682</v>
+        <v>0.001181760048829812</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001196236884364351</v>
+        <v>0.001181760048829812</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001187620028412476</v>
+        <v>0.001180135588875932</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001175421514519193</v>
+        <v>0.001174698799927266</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2373502254486084</v>
+        <v>0.2420375347137451</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>54.86302451461597</v>
+        <v>64.18114163232713</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002115771508160549</v>
+        <v>0.002164975666093337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001805045367952319</v>
+        <v>0.001880346008562489</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001566213746766372</v>
+        <v>0.001629091367249202</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001534910705856399</v>
+        <v>0.001629091367249202</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001319131376075441</v>
+        <v>0.001588984512539374</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001319131376075441</v>
+        <v>0.001541930049308511</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001319131376075441</v>
+        <v>0.001465184356307575</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001319131376075441</v>
+        <v>0.001404741955364861</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001293149417404592</v>
+        <v>0.001389983832468538</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001283846522640489</v>
+        <v>0.001346302062314716</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001257095198820642</v>
+        <v>0.001346302062314716</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001238895876543709</v>
+        <v>0.001322526218484331</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00118162388383777</v>
+        <v>0.001292322669743588</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001175721186560342</v>
+        <v>0.001288911522105938</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001167544732749472</v>
+        <v>0.001276224433172173</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001132907196431518</v>
+        <v>0.001268880466183995</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00110290691264455</v>
+        <v>0.001261995234418299</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001099349255369429</v>
+        <v>0.001256553197283643</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001080208342954167</v>
+        <v>0.001256553197283643</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001069454668900896</v>
+        <v>0.001251094378797799</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2187569141387939</v>
+        <v>0.2917087078094482</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>52.85775938783627</v>
+        <v>54.73639758962963</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002069224377067685</v>
+        <v>0.002010819686020787</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001684494810362547</v>
+        <v>0.001671325130938397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001564568309819243</v>
+        <v>0.001536448147294739</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001491369160778357</v>
+        <v>0.001498775857768871</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001463559126808208</v>
+        <v>0.00140620600907169</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00134348140157628</v>
+        <v>0.001301932025299467</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001322415473551464</v>
+        <v>0.001289562744469225</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001266976728874952</v>
+        <v>0.001183495940981106</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001222735544631707</v>
+        <v>0.00115209442144881</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001199918253620998</v>
+        <v>0.00115209442144881</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001181076743807643</v>
+        <v>0.00115209442144881</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001154767008045357</v>
+        <v>0.001151130349849571</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001109526806808008</v>
+        <v>0.001151130349849571</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001109526806808008</v>
+        <v>0.001151130349849571</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001081828229710802</v>
+        <v>0.001151130349849571</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001081828229710802</v>
+        <v>0.001140594432344423</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001054720641126334</v>
+        <v>0.001093654096172814</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00104765506378043</v>
+        <v>0.001093654096172814</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00104765506378043</v>
+        <v>0.001084439830985651</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001030365680074781</v>
+        <v>0.001066986307790051</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2270851135253906</v>
+        <v>0.2688229084014893</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>60.04861825956687</v>
+        <v>54.30725504569273</v>
       </c>
       <c r="F9" t="n">
         <v>0.002183817042338903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001753495835233146</v>
+        <v>0.001701279647527097</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001609231662259986</v>
+        <v>0.001669715375980043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001437395999912846</v>
+        <v>0.001389192334987158</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001415468775163358</v>
+        <v>0.001304440730238238</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001415468775163358</v>
+        <v>0.00126419389355216</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001415468775163358</v>
+        <v>0.00126419389355216</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001339392612970552</v>
+        <v>0.00126419389355216</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001339392612970552</v>
+        <v>0.00119720180547912</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00124967606939341</v>
+        <v>0.001191414051093862</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00124967606939341</v>
+        <v>0.001191414051093862</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00124967606939341</v>
+        <v>0.001188393472400269</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00124967606939341</v>
+        <v>0.001130031832062439</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001231052610814638</v>
+        <v>0.001130031832062439</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001231052610814638</v>
+        <v>0.001117134845701559</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001226747026953286</v>
+        <v>0.001096553573281507</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001203073659222748</v>
+        <v>0.001083450178865776</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001203073659222748</v>
+        <v>0.00106884718162318</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001193341280117553</v>
+        <v>0.001061182453545326</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001170538367632882</v>
+        <v>0.001058620956056388</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2378816604614258</v>
+        <v>0.2356662750244141</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.8342274243987</v>
+        <v>53.49491020689493</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002183817042338903</v>
+        <v>0.002130614768142741</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001699353000186397</v>
+        <v>0.001758391186359664</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001591047810884881</v>
+        <v>0.001683917744534515</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001393101786127703</v>
+        <v>0.001563539045679032</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001393101786127703</v>
+        <v>0.001419065485602971</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001393101786127703</v>
+        <v>0.001403729042156956</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001336852599143758</v>
+        <v>0.001386727614262391</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001266026032754686</v>
+        <v>0.001314304914308257</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001199889394057416</v>
+        <v>0.001287274446995336</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001199889394057416</v>
+        <v>0.001204998213667074</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001178984379088465</v>
+        <v>0.001184539499936576</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00115911116299522</v>
+        <v>0.001152813295408357</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001141411304831342</v>
+        <v>0.00108727825076318</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001128003093033531</v>
+        <v>0.00108727825076318</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001128003093033531</v>
+        <v>0.001084674675572213</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001112868031886337</v>
+        <v>0.001063010418777791</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001097246437734177</v>
+        <v>0.001063010418777791</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001097246437734177</v>
+        <v>0.001061957676724914</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001095379471749468</v>
+        <v>0.001056716613344093</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001088386499500949</v>
+        <v>0.001042785774013546</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2365882396697998</v>
+        <v>0.2447490692138672</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>53.77609290379951</v>
+        <v>58.52000246671923</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002126169905859818</v>
+        <v>0.002183817042338903</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001769691143150236</v>
+        <v>0.001793523527633342</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001658484380247942</v>
+        <v>0.001723264246227391</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001417594742377626</v>
+        <v>0.001579643025206589</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001417594742377626</v>
+        <v>0.001551287926628191</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001399802300113105</v>
+        <v>0.001414899988201469</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001306197285783971</v>
+        <v>0.001325400678003974</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001273921695527334</v>
+        <v>0.001325400678003974</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001258460202136287</v>
+        <v>0.001325400678003974</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001199404374892694</v>
+        <v>0.001325400678003974</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001190241258556487</v>
+        <v>0.001298521472862984</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001149093921413387</v>
+        <v>0.001291218482849366</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001149093921413387</v>
+        <v>0.001258166678383781</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001149093921413387</v>
+        <v>0.001189794003234938</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001137503457353482</v>
+        <v>0.001189794003234938</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001137503457353482</v>
+        <v>0.001189794003234938</v>
       </c>
       <c r="V11" t="n">
-        <v>0.00108989085559051</v>
+        <v>0.001189794003234938</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001074205916109768</v>
+        <v>0.001168898834890059</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001062582711169914</v>
+        <v>0.001168898834890059</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001048266918202719</v>
+        <v>0.001140740788824936</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_06_simulated/details.xlsx
+++ b/result/gr25_06_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2279942035675049</v>
+        <v>0.3579947948455811</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56.10687993525971</v>
+        <v>65.65520729320997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002183817042338903</v>
+        <v>0.00224943021628463</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001779179316321811</v>
+        <v>0.001826715171882966</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001623303116226225</v>
+        <v>0.001826715171882966</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001552078112251966</v>
+        <v>0.00170740620058687</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001475118993924459</v>
+        <v>0.001643657613261553</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001448279285121114</v>
+        <v>0.001421829698083137</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0014041121637863</v>
+        <v>0.001421829698083137</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001326784426068892</v>
+        <v>0.001421829698083137</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001326784426068892</v>
+        <v>0.001421829698083137</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001293642194379384</v>
+        <v>0.001407940938066215</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001243134721200023</v>
+        <v>0.001407940938066215</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001240165102122812</v>
+        <v>0.001365617171863614</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001240165102122812</v>
+        <v>0.001348345802293301</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001204690709905671</v>
+        <v>0.001348345802293301</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001154922463341095</v>
+        <v>0.001324707258688762</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001154922463341095</v>
+        <v>0.001324707258688762</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001136975599171764</v>
+        <v>0.001319506892207172</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001105598984748099</v>
+        <v>0.001307789499457221</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00109787980583268</v>
+        <v>0.001304440380025832</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001093701363260423</v>
+        <v>0.001279828602206822</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2160384654998779</v>
+        <v>0.4269788265228271</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.96451203334982</v>
+        <v>59.17800219631863</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002183817042338903</v>
+        <v>0.002135335730840912</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001747333769651048</v>
+        <v>0.001772538797174516</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00154987233688212</v>
+        <v>0.001729328094364473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001456229798269619</v>
+        <v>0.001636737916744652</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001394005360621007</v>
+        <v>0.001559823603102524</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001368221418100373</v>
+        <v>0.001559823603102524</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001292530709161425</v>
+        <v>0.001501951401846489</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001139396068373133</v>
+        <v>0.00145731077752669</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001139396068373133</v>
+        <v>0.001301151539918877</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001139396068373133</v>
+        <v>0.001301151539918877</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001139396068373133</v>
+        <v>0.001301151539918877</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001139396068373133</v>
+        <v>0.001247742550202562</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001095653656687426</v>
+        <v>0.001247742550202562</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001095653656687426</v>
+        <v>0.00122737665481305</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001095653656687426</v>
+        <v>0.001181759791337041</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001079275579990986</v>
+        <v>0.001181759791337041</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001068592176468574</v>
+        <v>0.001181759791337041</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001058460986854091</v>
+        <v>0.001181759791337041</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001058460986854091</v>
+        <v>0.001165352380823258</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00105193980571832</v>
+        <v>0.001153567294275217</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2080078125</v>
+        <v>0.3339982032775879</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.77745932613107</v>
+        <v>58.67848997739384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002183817042338903</v>
+        <v>0.002158746256690504</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001770272123480519</v>
+        <v>0.001899229064862406</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001537293367222318</v>
+        <v>0.001831314705145947</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001513367714587996</v>
+        <v>0.001654295493918062</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001513367714587996</v>
+        <v>0.001541817958013691</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001513367714587996</v>
+        <v>0.001454296567281296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001424643295353621</v>
+        <v>0.0013317389100978</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001196413938546844</v>
+        <v>0.001317833841222117</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001196413938546844</v>
+        <v>0.001317833841222117</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001159350172556639</v>
+        <v>0.00128827943957277</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001159350172556639</v>
+        <v>0.001281367915375082</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001159350172556639</v>
+        <v>0.001223858230803504</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001159350172556639</v>
+        <v>0.001198528213031789</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001148774925146554</v>
+        <v>0.001198528213031789</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00113328906723255</v>
+        <v>0.001198528213031789</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001125900715091843</v>
+        <v>0.001198528213031789</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001090747149171779</v>
+        <v>0.00118812648764579</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001079538471415672</v>
+        <v>0.001167655056767268</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001079538471415672</v>
+        <v>0.001154154023076761</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001067786731503529</v>
+        <v>0.001143830213984285</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2785139083862305</v>
+        <v>0.5180027484893799</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>54.67943350428141</v>
+        <v>60.52782793514962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002162077097587758</v>
+        <v>0.002194755420862678</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001737696203857617</v>
+        <v>0.001799809342743957</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001737696203857617</v>
+        <v>0.001681411725382104</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001589896623294049</v>
+        <v>0.001681411725382104</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001565168247107918</v>
+        <v>0.001621076787886049</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001438931452340169</v>
+        <v>0.001568685401659261</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001331488087718228</v>
+        <v>0.001458931692714475</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001331488087718228</v>
+        <v>0.001416287697705302</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00125998331238809</v>
+        <v>0.001416287697705302</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001196629534628492</v>
+        <v>0.001315737885109266</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001168215956809665</v>
+        <v>0.001315737885109266</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001092997837192642</v>
+        <v>0.001315737885109266</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001092997837192642</v>
+        <v>0.001294023936596551</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001092997837192642</v>
+        <v>0.001257375338803659</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001092997837192642</v>
+        <v>0.001244273748359075</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001092997837192642</v>
+        <v>0.001210113468467482</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001092997837192642</v>
+        <v>0.001197393267106001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001076957324023832</v>
+        <v>0.001197393267106001</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001066431138180037</v>
+        <v>0.001197393267106001</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001065875896769618</v>
+        <v>0.001179879686845021</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2839963436126709</v>
+        <v>0.3619968891143799</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>60.26204843626874</v>
+        <v>59.49524954728076</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002183817042338903</v>
+        <v>0.00224943021628463</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001736917710231314</v>
+        <v>0.001772159502186653</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001700336605672082</v>
+        <v>0.001703676119807879</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001560510874294788</v>
+        <v>0.001490680993088621</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001480708646370181</v>
+        <v>0.001490680993088621</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001480708646370181</v>
+        <v>0.001468730539902352</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001480708646370181</v>
+        <v>0.001468730539902352</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001431665875917394</v>
+        <v>0.00129916399375485</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001400990202078727</v>
+        <v>0.00129916399375485</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001364412942884014</v>
+        <v>0.00129916399375485</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001362624379046705</v>
+        <v>0.001246147719683289</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001293812999451367</v>
+        <v>0.001246147719683289</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001248775592042907</v>
+        <v>0.001246147719683289</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001248775592042907</v>
+        <v>0.001220082726477204</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001220148915292217</v>
+        <v>0.001220082726477204</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001220148915292217</v>
+        <v>0.001192025421709541</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001181760048829812</v>
+        <v>0.001159751453163368</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001181760048829812</v>
+        <v>0.001159751453163368</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001180135588875932</v>
+        <v>0.001159751453163368</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001174698799927266</v>
+        <v>0.001159751453163368</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2420375347137451</v>
+        <v>0.4499990940093994</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>64.18114163232713</v>
+        <v>62.17735807362806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002164975666093337</v>
+        <v>0.002146930587310975</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001880346008562489</v>
+        <v>0.001784917582399589</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001629091367249202</v>
+        <v>0.00170683299152069</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001629091367249202</v>
+        <v>0.001655547642938961</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001588984512539374</v>
+        <v>0.001590170439515019</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001541930049308511</v>
+        <v>0.001415557859142288</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001465184356307575</v>
+        <v>0.001397968546080504</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001404741955364861</v>
+        <v>0.001397968546080504</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001389983832468538</v>
+        <v>0.001360022177371942</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001346302062314716</v>
+        <v>0.001293790225855157</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001346302062314716</v>
+        <v>0.001290332914657192</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001322526218484331</v>
+        <v>0.001290332914657192</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001292322669743588</v>
+        <v>0.001290332914657192</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001288911522105938</v>
+        <v>0.001290332914657192</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001276224433172173</v>
+        <v>0.00127104907998969</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001268880466183995</v>
+        <v>0.00127104907998969</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001261995234418299</v>
+        <v>0.00124200458369195</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001256553197283643</v>
+        <v>0.001226590423239226</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001256553197283643</v>
+        <v>0.001216217441704901</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001251094378797799</v>
+        <v>0.001212034270441093</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2917087078094482</v>
+        <v>0.3400411605834961</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>54.73639758962963</v>
+        <v>59.58061462668047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002010819686020787</v>
+        <v>0.002207636949791082</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001671325130938397</v>
+        <v>0.001873654654046744</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001536448147294739</v>
+        <v>0.001618803621191514</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001498775857768871</v>
+        <v>0.001618803621191514</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00140620600907169</v>
+        <v>0.001618803621191514</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001301932025299467</v>
+        <v>0.001494201536171074</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001289562744469225</v>
+        <v>0.001494201536171074</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001183495940981106</v>
+        <v>0.001389272080952055</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00115209442144881</v>
+        <v>0.001353170658595652</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00115209442144881</v>
+        <v>0.001318930773223437</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00115209442144881</v>
+        <v>0.001318930773223437</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001151130349849571</v>
+        <v>0.001299827011680392</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001151130349849571</v>
+        <v>0.001299827011680392</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001151130349849571</v>
+        <v>0.001238666303088961</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001151130349849571</v>
+        <v>0.001229334238132207</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001140594432344423</v>
+        <v>0.001229334238132207</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001093654096172814</v>
+        <v>0.001161415489798839</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001093654096172814</v>
+        <v>0.001161415489798839</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001084439830985651</v>
+        <v>0.001161415489798839</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001066986307790051</v>
+        <v>0.001161415489798839</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2688229084014893</v>
+        <v>0.4089698791503906</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>54.30725504569273</v>
+        <v>66.89789480710533</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002183817042338903</v>
+        <v>0.002201247314085556</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001701279647527097</v>
+        <v>0.001825589745740979</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001669715375980043</v>
+        <v>0.001665984951841945</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001389192334987158</v>
+        <v>0.00158903176056869</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001304440730238238</v>
+        <v>0.001557972398176961</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00126419389355216</v>
+        <v>0.001474614463165662</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00126419389355216</v>
+        <v>0.001418532444851352</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00126419389355216</v>
+        <v>0.001383823380164133</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00119720180547912</v>
+        <v>0.001370940766804704</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001191414051093862</v>
+        <v>0.001351696311884433</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001191414051093862</v>
+        <v>0.001339925749738076</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001188393472400269</v>
+        <v>0.001339925749738076</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001130031832062439</v>
+        <v>0.001339925749738076</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001130031832062439</v>
+        <v>0.001339925749738076</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001117134845701559</v>
+        <v>0.001338625567321422</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001096553573281507</v>
+        <v>0.001329992490023997</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001083450178865776</v>
+        <v>0.001326728919210575</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00106884718162318</v>
+        <v>0.001315189690735935</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001061182453545326</v>
+        <v>0.00130405253035293</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001058620956056388</v>
+        <v>0.00130405253035293</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2356662750244141</v>
+        <v>0.4319992065429688</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>53.49491020689493</v>
+        <v>58.81154154442811</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002130614768142741</v>
+        <v>0.002235855393236772</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001758391186359664</v>
+        <v>0.001706908190549372</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001683917744534515</v>
+        <v>0.001684018799033653</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001563539045679032</v>
+        <v>0.001623621143254306</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001419065485602971</v>
+        <v>0.00153288755412732</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001403729042156956</v>
+        <v>0.00146114651144682</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001386727614262391</v>
+        <v>0.001452784337469455</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001314304914308257</v>
+        <v>0.001396883052038582</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001287274446995336</v>
+        <v>0.001273576252460558</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001204998213667074</v>
+        <v>0.001273576252460558</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001184539499936576</v>
+        <v>0.001249162521445244</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001152813295408357</v>
+        <v>0.001249162521445244</v>
       </c>
       <c r="R10" t="n">
-        <v>0.00108727825076318</v>
+        <v>0.001213752816388717</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00108727825076318</v>
+        <v>0.001213752816388717</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001084674675572213</v>
+        <v>0.00118912598349265</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001063010418777791</v>
+        <v>0.001177403052784003</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001063010418777791</v>
+        <v>0.001165002256058079</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001061957676724914</v>
+        <v>0.001156940211132454</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001056716613344093</v>
+        <v>0.001156940211132454</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001042785774013546</v>
+        <v>0.001146423811782224</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2447490692138672</v>
+        <v>0.4550004005432129</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>58.52000246671923</v>
+        <v>57.72701545828386</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002183817042338903</v>
+        <v>0.002217211910674893</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001793523527633342</v>
+        <v>0.001705433067681969</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001723264246227391</v>
+        <v>0.001668219450729823</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001579643025206589</v>
+        <v>0.001630883564591065</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001551287926628191</v>
+        <v>0.001414394253536275</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001414899988201469</v>
+        <v>0.001414394253536275</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001325400678003974</v>
+        <v>0.001305687966391115</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001325400678003974</v>
+        <v>0.001305687966391115</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001325400678003974</v>
+        <v>0.001279988611094114</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001325400678003974</v>
+        <v>0.001270829954691327</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001298521472862984</v>
+        <v>0.001231056463278251</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001291218482849366</v>
+        <v>0.001231056463278251</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001258166678383781</v>
+        <v>0.00120063610422434</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001189794003234938</v>
+        <v>0.001187638388142326</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001189794003234938</v>
+        <v>0.001187638388142326</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001189794003234938</v>
+        <v>0.001187638388142326</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001189794003234938</v>
+        <v>0.001159124200348742</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001168898834890059</v>
+        <v>0.001157437467692809</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001168898834890059</v>
+        <v>0.00113264965252411</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001140740788824936</v>
+        <v>0.001125282952403194</v>
       </c>
     </row>
   </sheetData>
